--- a/meta/program/BlancoVueComponentFieldStructure.xlsx
+++ b/meta/program/BlancoVueComponentFieldStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA32D9C-35FB-FB48-A461-2F15021BF67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EBC01-A54E-DA45-9FAB-A9F22A132950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="460" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="460" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -387,6 +387,17 @@
   </si>
   <si>
     <t>blanco.vuecomponent.valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>必須プロパティかどうか</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1340,10 +1351,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1660,7 +1671,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="40">
-        <f t="shared" ref="A29:A44" si="0">A28+1</f>
+        <f t="shared" ref="A29:A45" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="41" t="s">
@@ -1959,15 +1970,32 @@
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
+      <c r="A45" s="40">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="43"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7">
@@ -1975,6 +2003,9 @@
     </row>
     <row r="48" spans="1:7">
       <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1992,7 +2023,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoVueComponentFieldStructure.xlsx
+++ b/meta/program/BlancoVueComponentFieldStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EBC01-A54E-DA45-9FAB-A9F22A132950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6075A-BF5C-EF4B-90D8-744F70ADB6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="460" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -397,6 +397,31 @@
     <t>必須プロパティかどうか</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>queryParam</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対応するクエリ文字列パラメータを指定します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シテイシマス。 </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1351,10 +1376,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1671,7 +1696,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="40">
-        <f t="shared" ref="A29:A45" si="0">A28+1</f>
+        <f t="shared" ref="A29:A46" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="41" t="s">
@@ -1990,15 +2015,32 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
+      <c r="A46" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="43"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7">
@@ -2006,6 +2048,9 @@
     </row>
     <row r="49" spans="7:7">
       <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2023,7 +2068,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D63" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
